--- a/trunk/Docs/Tested_Cell_240mAh_1ms.xlsx
+++ b/trunk/Docs/Tested_Cell_240mAh_1ms.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="24855" windowHeight="12015"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -124,6 +124,21 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tag Battery Burn-in Test</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
     </c:title>
     <c:plotArea>
@@ -233,46 +248,93 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="44363136"/>
-        <c:axId val="44705280"/>
+        <c:axId val="63675392"/>
+        <c:axId val="64003456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44363136"/>
+        <c:axId val="63675392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (min)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44705280"/>
+        <c:crossAx val="64003456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44705280"/>
+        <c:axId val="64003456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44363136"/>
+        <c:crossAx val="63675392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -600,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
